--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\simple-nodejs-app\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levie\Documents\Projects\NodeJS\simple-nodejs-app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F124FB-C698-48FD-8CDD-1CC8C64DC69E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,11 +37,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -282,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -390,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -422,6 +418,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -433,10 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,15 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,6 +487,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:N8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,22 +843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -850,808 +874,837 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="7" spans="1:73" ht="33" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:73" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="10" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="10" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="16" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
-      <c r="BL16" s="13"/>
-      <c r="BM16" s="13"/>
-      <c r="BN16" s="13"/>
-      <c r="BO16" s="13"/>
-      <c r="BP16" s="13"/>
-      <c r="BQ16" s="13"/>
-      <c r="BR16" s="13"/>
-      <c r="BS16" s="13"/>
-      <c r="BT16" s="13"/>
-      <c r="BU16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="17"/>
+      <c r="BJ16" s="17"/>
+      <c r="BK16" s="17"/>
+      <c r="BL16" s="17"/>
+      <c r="BM16" s="17"/>
+      <c r="BN16" s="17"/>
+      <c r="BO16" s="17"/>
+      <c r="BP16" s="17"/>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="17"/>
+      <c r="BT16" s="17"/>
+      <c r="BU16" s="17"/>
     </row>
     <row r="17" spans="1:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="12" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12" t="s">
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="s">
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12" t="s">
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12" t="s">
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12" t="s">
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12" t="s">
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12" t="s">
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12" t="s">
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12" t="s">
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12">
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16">
         <v>2256</v>
       </c>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12" t="s">
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12" t="s">
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12" t="s">
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
+      <c r="BS17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W18" s="7" t="s">
+      <c r="W18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="X18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="Z18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AA18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AB18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AC18" s="9" t="s">
+      <c r="AC18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AD18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AE18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AF18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AG18" s="9" t="s">
+      <c r="AG18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AH18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI18" s="7" t="s">
+      <c r="AI18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ18" s="8" t="s">
+      <c r="AJ18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AK18" s="9" t="s">
+      <c r="AK18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL18" s="6" t="s">
+      <c r="AL18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM18" s="7" t="s">
+      <c r="AM18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AN18" s="8" t="s">
+      <c r="AN18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AO18" s="9" t="s">
+      <c r="AO18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AP18" s="6" t="s">
+      <c r="AP18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AQ18" s="7" t="s">
+      <c r="AQ18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AR18" s="8" t="s">
+      <c r="AR18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AS18" s="9" t="s">
+      <c r="AS18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AT18" s="6" t="s">
+      <c r="AT18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AU18" s="7" t="s">
+      <c r="AU18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AV18" s="8" t="s">
+      <c r="AV18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AW18" s="9" t="s">
+      <c r="AW18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AX18" s="6" t="s">
+      <c r="AX18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AY18" s="7" t="s">
+      <c r="AY18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AZ18" s="8" t="s">
+      <c r="AZ18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BA18" s="9" t="s">
+      <c r="BA18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BB18" s="6" t="s">
+      <c r="BB18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BC18" s="7" t="s">
+      <c r="BC18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BD18" s="8" t="s">
+      <c r="BD18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BE18" s="9" t="s">
+      <c r="BE18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BF18" s="6" t="s">
+      <c r="BF18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG18" s="7" t="s">
+      <c r="BG18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BH18" s="8" t="s">
+      <c r="BH18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BI18" s="9" t="s">
+      <c r="BI18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BJ18" s="6" t="s">
+      <c r="BJ18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="7" t="s">
+      <c r="BK18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BL18" s="8" t="s">
+      <c r="BL18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BM18" s="9" t="s">
+      <c r="BM18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BN18" s="6" t="s">
+      <c r="BN18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO18" s="7" t="s">
+      <c r="BO18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BP18" s="8" t="s">
+      <c r="BP18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BQ18" s="9" t="s">
+      <c r="BQ18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BR18" s="6" t="s">
+      <c r="BR18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BS18" s="7" t="s">
+      <c r="BS18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BT18" s="8" t="s">
+      <c r="BT18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BU18" s="9" t="s">
+      <c r="BU18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <v>1</v>
       </c>
-      <c r="M19" s="11" t="b">
+      <c r="M19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AA19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AB19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AC19" s="9" t="s">
+      <c r="AC19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AD19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AI19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ19" s="8" t="s">
+      <c r="AJ19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AK19" s="9" t="s">
+      <c r="AK19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AL19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AM19" s="7" t="s">
+      <c r="AM19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN19" s="8" t="s">
+      <c r="AN19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AO19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP19" s="6" t="s">
+      <c r="AO19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AR19" s="8" t="s">
+      <c r="AR19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AS19" s="9" t="s">
+      <c r="AS19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AT19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB19" s="6" t="s">
+      <c r="AT19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BC19" s="7" t="s">
+      <c r="BC19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BD19" s="8" t="s">
+      <c r="BD19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BE19" s="9" t="s">
+      <c r="BE19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BF19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU19" s="9" t="s">
+      <c r="BF19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU19" s="7" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="45">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="BR17:BU17"/>
+    <mergeCell ref="A16:BU16"/>
+    <mergeCell ref="BF17:BI17"/>
+    <mergeCell ref="BJ17:BM17"/>
+    <mergeCell ref="BN17:BQ17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AX17:BA17"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -1668,22 +1721,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="BR17:BU17"/>
-    <mergeCell ref="A16:BU16"/>
-    <mergeCell ref="BF17:BI17"/>
-    <mergeCell ref="BJ17:BM17"/>
-    <mergeCell ref="BN17:BQ17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="AX17:BA17"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levie\Documents\Projects\NodeJS\simple-nodejs-app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F124FB-C698-48FD-8CDD-1CC8C64DC69E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160891C-9F8E-405D-AA8D-FA98C5C7A644}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="cong_truong">Sheet2!$C$12</definedName>
-    <definedName name="DataRow">Sheet2!$A$19:$BU$19</definedName>
+    <definedName name="DataRow">Sheet2!$A$17:$BU$17</definedName>
     <definedName name="FromDate">Sheet2!$C$10</definedName>
     <definedName name="khach_hang">Sheet2!$C$11</definedName>
     <definedName name="ma_me">Sheet2!$K$11</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>CÔNG TY CỔ PHẦN SẢN XUẤT VÀ THƯƠNG MẠI THM - CONCRETE</t>
   </si>
@@ -92,63 +92,9 @@
     <t>VINCITY SPORTIA - TAY MO</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Độ Sụt</t>
-  </si>
-  <si>
-    <t>Khối Lượng</t>
-  </si>
-  <si>
-    <t>Trộn Tay</t>
-  </si>
-  <si>
-    <t>CÁT 1</t>
-  </si>
-  <si>
-    <t>CÁT 2</t>
-  </si>
-  <si>
-    <t>TRO BAY</t>
-  </si>
-  <si>
-    <t>XI MĂNG 1</t>
-  </si>
-  <si>
-    <t>XI MĂNG 2</t>
-  </si>
-  <si>
-    <t>Thực Tế</t>
-  </si>
-  <si>
-    <t>Chuẩn</t>
-  </si>
-  <si>
-    <t>Sai Số</t>
-  </si>
-  <si>
-    <t>Trạm</t>
-  </si>
-  <si>
     <t>Công trường</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhân Viên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực Tế </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuấn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mác </t>
-  </si>
-  <si>
     <t>THM2</t>
   </si>
   <si>
@@ -246,33 +192,6 @@
   </si>
   <si>
     <t>-0.03</t>
-  </si>
-  <si>
-    <t>ĐÁ 0*5</t>
-  </si>
-  <si>
-    <t>ĐÁ 1*2</t>
-  </si>
-  <si>
-    <t>NƯỚC</t>
-  </si>
-  <si>
-    <t>BIFI  5298</t>
-  </si>
-  <si>
-    <t>SPR 1000</t>
-  </si>
-  <si>
-    <t>SPR 1500</t>
-  </si>
-  <si>
-    <t>BIFI 285</t>
-  </si>
-  <si>
-    <t>PHỤ GIA 6</t>
-  </si>
-  <si>
-    <t>BIFI 295</t>
   </si>
 </sst>
 </file>
@@ -282,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +222,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -316,12 +229,6 @@
     </font>
     <font>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -386,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -418,45 +325,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,39 +347,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -818,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU19"/>
+  <dimension ref="A1:BU17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +813,7 @@
     </row>
     <row r="8" spans="1:73" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -981,8 +847,8 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -995,13 +861,13 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1012,15 +878,15 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -1055,656 +921,301 @@
       <c r="L14" s="10"/>
     </row>
     <row r="16" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="17"/>
-      <c r="BU16" s="17"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
     </row>
-    <row r="17" spans="1:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="T17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16">
-        <v>2256</v>
-      </c>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
-      <c r="BQ17" s="16"/>
-      <c r="BR17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="BS17" s="16"/>
-      <c r="BT17" s="16"/>
-      <c r="BU17" s="16"/>
-    </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Y17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BK18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BO18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BP18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BS18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BT18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="Z17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="AA17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="AB17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="AC17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="AD17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
+      <c r="AI17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="AL17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="9">
-        <v>1</v>
-      </c>
-      <c r="M19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="AM17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="AQ17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="AR17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="AS17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="AT17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U19" s="7" t="s">
+      <c r="BC17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="BD17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU19" s="7" t="s">
-        <v>57</v>
+      <c r="BF17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU17" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="BR17:BU17"/>
-    <mergeCell ref="A16:BU16"/>
-    <mergeCell ref="BF17:BI17"/>
-    <mergeCell ref="BJ17:BM17"/>
-    <mergeCell ref="BN17:BQ17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="AX17:BA17"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
+  <mergeCells count="17">
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -1721,6 +1232,7 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A16:BU16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levie\Documents\Projects\NodeJS\simple-nodejs-app\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\simple-nodejs-app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160891C-9F8E-405D-AA8D-FA98C5C7A644}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="cong_truong">Sheet2!$C$12</definedName>
-    <definedName name="DataRow">Sheet2!$A$17:$BU$17</definedName>
+    <definedName name="DataRow">Sheet2!$A$19:$BU$19</definedName>
     <definedName name="FromDate">Sheet2!$C$10</definedName>
     <definedName name="khach_hang">Sheet2!$C$11</definedName>
     <definedName name="ma_me">Sheet2!$K$11</definedName>
@@ -37,12 +36,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>CÔNG TY CỔ PHẦN SẢN XUẤT VÀ THƯƠNG MẠI THM - CONCRETE</t>
   </si>
@@ -92,9 +96,63 @@
     <t>VINCITY SPORTIA - TAY MO</t>
   </si>
   <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Độ Sụt</t>
+  </si>
+  <si>
+    <t>Khối Lượng</t>
+  </si>
+  <si>
+    <t>Trộn Tay</t>
+  </si>
+  <si>
+    <t>CÁT 1</t>
+  </si>
+  <si>
+    <t>CÁT 2</t>
+  </si>
+  <si>
+    <t>TRO BAY</t>
+  </si>
+  <si>
+    <t>XI MĂNG 1</t>
+  </si>
+  <si>
+    <t>XI MĂNG 2</t>
+  </si>
+  <si>
+    <t>Thực Tế</t>
+  </si>
+  <si>
+    <t>Chuẩn</t>
+  </si>
+  <si>
+    <t>Sai Số</t>
+  </si>
+  <si>
+    <t>Trạm</t>
+  </si>
+  <si>
     <t>Công trường</t>
   </si>
   <si>
+    <t xml:space="preserve">Nhân Viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực Tế </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuấn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mác </t>
+  </si>
+  <si>
     <t>THM2</t>
   </si>
   <si>
@@ -192,16 +250,43 @@
   </si>
   <si>
     <t>-0.03</t>
+  </si>
+  <si>
+    <t>ĐÁ 0*5</t>
+  </si>
+  <si>
+    <t>ĐÁ 1*2</t>
+  </si>
+  <si>
+    <t>NƯỚC</t>
+  </si>
+  <si>
+    <t>BIFI  5298</t>
+  </si>
+  <si>
+    <t>SPR 1000</t>
+  </si>
+  <si>
+    <t>SPR 1500</t>
+  </si>
+  <si>
+    <t>BIFI 285</t>
+  </si>
+  <si>
+    <t>PHỤ GIA 6</t>
+  </si>
+  <si>
+    <t>BIFI 295</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +307,12 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -229,6 +320,12 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -329,12 +426,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,27 +451,33 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,22 +819,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -740,482 +850,808 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="7" spans="1:73" ht="33" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:73" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="A8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="16" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
-      <c r="BG16" s="9"/>
-      <c r="BH16" s="9"/>
-      <c r="BI16" s="9"/>
-      <c r="BJ16" s="9"/>
-      <c r="BK16" s="9"/>
-      <c r="BL16" s="9"/>
-      <c r="BM16" s="9"/>
-      <c r="BN16" s="9"/>
-      <c r="BO16" s="9"/>
-      <c r="BP16" s="9"/>
-      <c r="BQ16" s="9"/>
-      <c r="BR16" s="9"/>
-      <c r="BS16" s="9"/>
-      <c r="BT16" s="9"/>
-      <c r="BU16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:73" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12">
+        <v>2256</v>
+      </c>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M17" s="8" t="b">
+      <c r="M19" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP17" s="3" t="s">
+      <c r="N19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="O19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AR17" s="5" t="s">
+      <c r="P19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS17" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AT17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB17" s="3" t="s">
+      <c r="S19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BC17" s="4" t="s">
+      <c r="T19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="BD17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE17" s="6" t="s">
+      <c r="V19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BF17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU17" s="6" t="s">
-        <v>39</v>
+      <c r="W19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU19" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -1232,7 +1668,22 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="I12:L12"/>
+    <mergeCell ref="BR17:BU17"/>
     <mergeCell ref="A16:BU16"/>
+    <mergeCell ref="BF17:BI17"/>
+    <mergeCell ref="BJ17:BM17"/>
+    <mergeCell ref="BN17:BQ17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AX17:BA17"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levie\Documents\Projects\NodeJS\simple-nodejs-app\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\simple-nodejs-app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80C8AF-6375-46AC-B574-76D33E3E034A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,6 +36,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -98,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -159,26 +163,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -210,8 +205,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BI17" sqref="BI17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:BU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -12,24 +12,25 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="cong_truong">Sheet2!$C$12</definedName>
-    <definedName name="DataRow">Sheet2!#REF!</definedName>
-    <definedName name="FromDate">Sheet2!$C$10</definedName>
-    <definedName name="khach_hang">Sheet2!$C$11</definedName>
-    <definedName name="ma_me">Sheet2!$K$11</definedName>
-    <definedName name="ma_phieu">Sheet2!$K$10</definedName>
-    <definedName name="Mac">Sheet2!$C$14</definedName>
-    <definedName name="name_header">Sheet2!$A$16</definedName>
-    <definedName name="nhan_vien">Sheet2!$C$13</definedName>
-    <definedName name="tai_xe">Sheet2!$I$13</definedName>
-    <definedName name="ten_baocao">Sheet2!$A$7</definedName>
-    <definedName name="ToDate">Sheet2!$G$10</definedName>
-    <definedName name="tram">Sheet2!$A$5</definedName>
-    <definedName name="type_report">Sheet2!$A$8</definedName>
-    <definedName name="Xe">Sheet2!$I$12</definedName>
+    <definedName name="cong_truong">Sheet1!$C$12</definedName>
+    <definedName name="diachi_congty">Sheet1!$A$2</definedName>
+    <definedName name="FromDate">Sheet1!$C$10</definedName>
+    <definedName name="khach_hang">Sheet1!$C$11</definedName>
+    <definedName name="ma_me">Sheet1!$K$11</definedName>
+    <definedName name="ma_phieu">Sheet1!$K$10</definedName>
+    <definedName name="Mac">Sheet1!$C$14</definedName>
+    <definedName name="name_header">Sheet1!$A$16</definedName>
+    <definedName name="nhan_vien">Sheet1!$C$13</definedName>
+    <definedName name="tai_xe">Sheet1!$I$13</definedName>
+    <definedName name="ten_baocao">Sheet1!$A$7</definedName>
+    <definedName name="ten_congty">Sheet1!$A$1</definedName>
+    <definedName name="ToDate">Sheet1!$G$10</definedName>
+    <definedName name="tram">Sheet1!$A$5</definedName>
+    <definedName name="type_report">Sheet1!$A$8</definedName>
+    <definedName name="Xe">Sheet1!$I$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CÔNG TY CỔ PHẦN SẢN XUẤT VÀ THƯƠNG MẠI THM - CONCRETE</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>Mác</t>
-  </si>
-  <si>
-    <t>VINCITY SPORTIA - TAY MO</t>
   </si>
   <si>
     <t>Công trường</t>
@@ -190,6 +188,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -204,9 +205,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:BU16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,23 +544,23 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -577,7 +575,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +593,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,26 +611,26 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="7" spans="1:73" ht="33" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="7" spans="1:27" ht="33" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
@@ -649,37 +647,37 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:73" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -688,7 +686,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,7 +705,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +724,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -743,7 +741,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,90 +756,22 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="16" spans="1:73" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
-      <c r="BT16" s="10"/>
-      <c r="BU16" s="10"/>
+    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:BU16"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:L14"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A4:N4"/>
@@ -851,9 +781,14 @@
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A8:N8"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
